--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H2">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I2">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J2">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N2">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O2">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P2">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q2">
-        <v>75376.65395702061</v>
+        <v>49762.85909679745</v>
       </c>
       <c r="R2">
-        <v>678389.8856131856</v>
+        <v>447865.731871177</v>
       </c>
       <c r="S2">
-        <v>0.161596978875167</v>
+        <v>0.155104505557595</v>
       </c>
       <c r="T2">
-        <v>0.1761435215834374</v>
+        <v>0.1672309569037391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H3">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I3">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J3">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>227.639553</v>
       </c>
       <c r="O3">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P3">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q3">
-        <v>7331.515452891656</v>
+        <v>6782.306070469358</v>
       </c>
       <c r="R3">
-        <v>65983.63907602491</v>
+        <v>61040.75463422422</v>
       </c>
       <c r="S3">
-        <v>0.01571774131071714</v>
+        <v>0.021139585801414</v>
       </c>
       <c r="T3">
-        <v>0.01713261179186961</v>
+        <v>0.02279233056067759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H4">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I4">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J4">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N4">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O4">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P4">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q4">
-        <v>143.753541578088</v>
+        <v>125.3573673282918</v>
       </c>
       <c r="R4">
-        <v>1293.781874202792</v>
+        <v>1128.216305954626</v>
       </c>
       <c r="S4">
-        <v>0.0003081874400377395</v>
+        <v>0.0003907229775450708</v>
       </c>
       <c r="T4">
-        <v>0.0003359296774846699</v>
+        <v>0.0004212706599607918</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H5">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I5">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J5">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N5">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O5">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P5">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q5">
-        <v>15740.75555190153</v>
+        <v>12067.17863071319</v>
       </c>
       <c r="R5">
-        <v>94444.53331140921</v>
+        <v>72403.07178427912</v>
       </c>
       <c r="S5">
-        <v>0.03374597317426933</v>
+        <v>0.03761186171701295</v>
       </c>
       <c r="T5">
-        <v>0.02452246568614309</v>
+        <v>0.02703496632052625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H6">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I6">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J6">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N6">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O6">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P6">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q6">
-        <v>109.5728118806186</v>
+        <v>34.81870683531756</v>
       </c>
       <c r="R6">
-        <v>986.155306925568</v>
+        <v>313.368361517858</v>
       </c>
       <c r="S6">
-        <v>0.0002349087474334058</v>
+        <v>0.0001085254827770606</v>
       </c>
       <c r="T6">
-        <v>0.0002560546262169816</v>
+        <v>0.0001170102716745961</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>367.061969</v>
       </c>
       <c r="I7">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J7">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N7">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O7">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P7">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q7">
-        <v>95452.58739412457</v>
+        <v>68119.67143478504</v>
       </c>
       <c r="R7">
-        <v>859073.2865471211</v>
+        <v>613077.0429130654</v>
       </c>
       <c r="S7">
-        <v>0.2046369656777754</v>
+        <v>0.2123203559523398</v>
       </c>
       <c r="T7">
-        <v>0.2230578568456861</v>
+        <v>0.2289200830653344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>367.061969</v>
       </c>
       <c r="I8">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J8">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>227.639553</v>
       </c>
       <c r="O8">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P8">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q8">
         <v>9284.202505162206</v>
@@ -948,10 +948,10 @@
         <v>83557.82254645985</v>
       </c>
       <c r="S8">
-        <v>0.01990402859955727</v>
+        <v>0.02893767892754465</v>
       </c>
       <c r="T8">
-        <v>0.02169573785121202</v>
+        <v>0.03120009776782072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>367.061969</v>
       </c>
       <c r="I9">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J9">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N9">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O9">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P9">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q9">
-        <v>182.041079967829</v>
+        <v>171.5999206902975</v>
       </c>
       <c r="R9">
-        <v>1638.369719710461</v>
+        <v>1544.399286212678</v>
       </c>
       <c r="S9">
-        <v>0.0003902705547363171</v>
+        <v>0.0005348551376563494</v>
       </c>
       <c r="T9">
-        <v>0.000425401702185786</v>
+        <v>0.0005766714264914696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>367.061969</v>
       </c>
       <c r="I10">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J10">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N10">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O10">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P10">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q10">
-        <v>19933.17248897978</v>
+        <v>16518.58953421636</v>
       </c>
       <c r="R10">
-        <v>119599.0349338787</v>
+        <v>99111.53720529815</v>
       </c>
       <c r="S10">
-        <v>0.04273392734378213</v>
+        <v>0.05148634360477049</v>
       </c>
       <c r="T10">
-        <v>0.03105381674756574</v>
+        <v>0.03700778163534512</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>367.061969</v>
       </c>
       <c r="I11">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J11">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N11">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O11">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P11">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q11">
-        <v>138.7566023827271</v>
+        <v>47.66283353599712</v>
       </c>
       <c r="R11">
-        <v>1248.809421444544</v>
+        <v>428.965501823974</v>
       </c>
       <c r="S11">
-        <v>0.0002974747029341045</v>
+        <v>0.0001485589928563923</v>
       </c>
       <c r="T11">
-        <v>0.0003242526074529987</v>
+        <v>0.0001601736999368147</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H12">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I12">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J12">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N12">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O12">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P12">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q12">
-        <v>65331.4760637944</v>
+        <v>50293.1290892553</v>
       </c>
       <c r="R12">
-        <v>587983.2845741495</v>
+        <v>452638.1618032978</v>
       </c>
       <c r="S12">
-        <v>0.1400615257263107</v>
+        <v>0.1567572897119825</v>
       </c>
       <c r="T12">
-        <v>0.1526695025582117</v>
+        <v>0.1690129597843126</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H13">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I13">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J13">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>227.639553</v>
       </c>
       <c r="O13">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P13">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q13">
-        <v>6354.470531353663</v>
+        <v>6854.577910434159</v>
       </c>
       <c r="R13">
-        <v>57190.23478218296</v>
+        <v>61691.20119390743</v>
       </c>
       <c r="S13">
-        <v>0.01362309397288372</v>
+        <v>0.02136484793881799</v>
       </c>
       <c r="T13">
-        <v>0.01484940971018731</v>
+        <v>0.02303520424546724</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H14">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I14">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J14">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N14">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O14">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P14">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q14">
-        <v>124.596019691317</v>
+        <v>126.6931677914124</v>
       </c>
       <c r="R14">
-        <v>1121.364177221853</v>
+        <v>1140.238510122712</v>
       </c>
       <c r="S14">
-        <v>0.0002671163988450342</v>
+        <v>0.0003948864977711278</v>
       </c>
       <c r="T14">
-        <v>0.0002911615272312542</v>
+        <v>0.0004257596944281562</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H15">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I15">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J15">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N15">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O15">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P15">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q15">
-        <v>13643.04118821012</v>
+        <v>12195.76575045743</v>
       </c>
       <c r="R15">
-        <v>81858.24712926074</v>
+        <v>73174.5945027446</v>
       </c>
       <c r="S15">
-        <v>0.02924876766142099</v>
+        <v>0.03801265142224695</v>
       </c>
       <c r="T15">
-        <v>0.02125444412686426</v>
+        <v>0.02732304927329627</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H16">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I16">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J16">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N16">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O16">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P16">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q16">
-        <v>94.9704339582791</v>
+        <v>35.1897328524329</v>
       </c>
       <c r="R16">
-        <v>854.733905624512</v>
+        <v>316.707595671896</v>
       </c>
       <c r="S16">
-        <v>0.000203603296305408</v>
+        <v>0.0001096819237046556</v>
       </c>
       <c r="T16">
-        <v>0.000221931139225907</v>
+        <v>0.0001182571259953595</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H17">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I17">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J17">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N17">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O17">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P17">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q17">
-        <v>33209.73541776969</v>
+        <v>10374.4301942342</v>
       </c>
       <c r="R17">
-        <v>199258.4125066181</v>
+        <v>62246.58116540518</v>
       </c>
       <c r="S17">
-        <v>0.07119701699434972</v>
+        <v>0.0323357800360397</v>
       </c>
       <c r="T17">
-        <v>0.05173732573019774</v>
+        <v>0.02324258051355255</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H18">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I18">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J18">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>227.639553</v>
       </c>
       <c r="O18">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P18">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q18">
-        <v>3230.147208983985</v>
+        <v>1413.957360190011</v>
       </c>
       <c r="R18">
-        <v>19380.88325390391</v>
+        <v>8483.744161140066</v>
       </c>
       <c r="S18">
-        <v>0.006924982775057861</v>
+        <v>0.004407125338300909</v>
       </c>
       <c r="T18">
-        <v>0.005032234560299216</v>
+        <v>0.003167790150557995</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H19">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I19">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J19">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N19">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O19">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P19">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q19">
-        <v>63.33548692540499</v>
+        <v>26.134174769794</v>
       </c>
       <c r="R19">
-        <v>380.01292155243</v>
+        <v>156.805048618764</v>
       </c>
       <c r="S19">
-        <v>0.0001357824048354406</v>
+        <v>8.145690037503377E-05</v>
       </c>
       <c r="T19">
-        <v>9.867012417048709E-05</v>
+        <v>5.855026732743162E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H20">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I20">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J20">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N20">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O20">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P20">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q20">
-        <v>6935.122477743659</v>
+        <v>2515.733714217906</v>
       </c>
       <c r="R20">
-        <v>27740.48991097464</v>
+        <v>10062.93485687163</v>
       </c>
       <c r="S20">
-        <v>0.01486793034314912</v>
+        <v>0.007841222167306145</v>
       </c>
       <c r="T20">
-        <v>0.007202801349186145</v>
+        <v>0.003757452525657129</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H21">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I21">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J21">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N21">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O21">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P21">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q21">
-        <v>48.27600988512</v>
+        <v>7.258912572002</v>
       </c>
       <c r="R21">
-        <v>289.65605931072</v>
+        <v>43.553475432012</v>
       </c>
       <c r="S21">
-        <v>0.0001034969972802365</v>
+        <v>2.262510767671383E-05</v>
       </c>
       <c r="T21">
-        <v>7.52090197937638E-05</v>
+        <v>1.626266279080683E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H22">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I22">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J22">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N22">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O22">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P22">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q22">
-        <v>86845.53988728857</v>
+        <v>53601.30534647774</v>
       </c>
       <c r="R22">
-        <v>781609.8589855972</v>
+        <v>482411.7481182997</v>
       </c>
       <c r="S22">
-        <v>0.1861846624628728</v>
+        <v>0.1670684545442878</v>
       </c>
       <c r="T22">
-        <v>0.2029445249491217</v>
+        <v>0.1801302768183964</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H23">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I23">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J23">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>227.639553</v>
       </c>
       <c r="O23">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P23">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q23">
-        <v>8447.037434978518</v>
+        <v>7305.457629139596</v>
       </c>
       <c r="R23">
-        <v>76023.33691480667</v>
+        <v>65749.11866225637</v>
       </c>
       <c r="S23">
-        <v>0.01810926405298242</v>
+        <v>0.02277018270263696</v>
       </c>
       <c r="T23">
-        <v>0.01973941323519919</v>
+        <v>0.02455041153411862</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H24">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I24">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J24">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N24">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O24">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P24">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q24">
-        <v>165.626268528414</v>
+        <v>135.0267779133046</v>
       </c>
       <c r="R24">
-        <v>1490.636416755726</v>
+        <v>1215.241001219742</v>
       </c>
       <c r="S24">
-        <v>0.0003550795002365049</v>
+        <v>0.0004208613010868207</v>
       </c>
       <c r="T24">
-        <v>0.0003870428398420782</v>
+        <v>0.0004537652716888167</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H25">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I25">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J25">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N25">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O25">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P25">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q25">
-        <v>18135.78001111841</v>
+        <v>12997.97757193126</v>
       </c>
       <c r="R25">
-        <v>108814.6800667104</v>
+        <v>77987.86543158758</v>
       </c>
       <c r="S25">
-        <v>0.03888056985140837</v>
+        <v>0.04051304368628716</v>
       </c>
       <c r="T25">
-        <v>0.02825366555929811</v>
+        <v>0.02912030198987358</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H26">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I26">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J26">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N26">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O26">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P26">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q26">
-        <v>126.2447920567893</v>
+        <v>37.50443946998733</v>
       </c>
       <c r="R26">
-        <v>1136.203128511104</v>
+        <v>337.539955229886</v>
       </c>
       <c r="S26">
-        <v>0.0002706511356518061</v>
+        <v>0.0001168965699678117</v>
       </c>
       <c r="T26">
-        <v>0.0002950144519167855</v>
+        <v>0.0001260358310302146</v>
       </c>
     </row>
   </sheetData>
